--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma2F-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9974461301551147</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.089175334079616</v>
+      </c>
+      <c r="D16">
+        <v>0.7561887107447419</v>
+      </c>
+      <c r="E16">
+        <v>1.036456733616979</v>
+      </c>
+      <c r="F16">
+        <v>1.089175334079616</v>
+      </c>
+      <c r="G16">
+        <v>0.8664604101021188</v>
+      </c>
+      <c r="H16">
+        <v>1.102811925910289</v>
+      </c>
+      <c r="I16">
+        <v>1.05363254966033</v>
+      </c>
+      <c r="J16">
+        <v>0.7561887107447419</v>
+      </c>
+      <c r="K16">
+        <v>0.8963227221808603</v>
+      </c>
+      <c r="L16">
+        <v>0.9927490281302379</v>
+      </c>
+      <c r="M16">
+        <v>0.9841209440190125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.089175334079616</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9776360000000009</v>
+        <v>1.089175334079616</v>
       </c>
       <c r="D10">
-        <v>0.576812</v>
+        <v>0.7561887107447419</v>
       </c>
       <c r="E10">
-        <v>1.167143999999998</v>
+        <v>1.036456733616979</v>
       </c>
       <c r="F10">
-        <v>0.9776360000000009</v>
+        <v>1.089175334079616</v>
       </c>
       <c r="G10">
-        <v>0.6972120000000004</v>
+        <v>0.8664604101021188</v>
       </c>
       <c r="H10">
-        <v>1.522711999999999</v>
+        <v>1.102811925910289</v>
       </c>
       <c r="I10">
-        <v>1.131287999999995</v>
+        <v>1.05363254966033</v>
       </c>
       <c r="J10">
-        <v>0.576812</v>
+        <v>0.7561887107447419</v>
       </c>
       <c r="K10">
-        <v>0.871977999999999</v>
+        <v>0.8963227221808603</v>
       </c>
       <c r="L10">
-        <v>0.9248069999999999</v>
+        <v>0.9927490281302379</v>
       </c>
       <c r="M10">
-        <v>1.012133999999999</v>
+        <v>0.9841209440190125</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.95</v>
+        <v>1.052044086089762</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.8721289935766211</v>
       </c>
       <c r="E11">
-        <v>1.29</v>
+        <v>1.009596501188526</v>
       </c>
       <c r="F11">
-        <v>0.95</v>
+        <v>1.052044086089762</v>
       </c>
       <c r="G11">
-        <v>0.48</v>
+        <v>0.9419801598638594</v>
       </c>
       <c r="H11">
-        <v>1.93</v>
+        <v>1.011812723257971</v>
       </c>
       <c r="I11">
-        <v>1.23</v>
+        <v>1.020969592470528</v>
       </c>
       <c r="J11">
-        <v>0.3</v>
+        <v>0.8721289935766211</v>
       </c>
       <c r="K11">
-        <v>0.795</v>
+        <v>0.9408627473825735</v>
       </c>
       <c r="L11">
-        <v>0.8725000000000001</v>
+        <v>0.9964534167361674</v>
       </c>
       <c r="M11">
-        <v>1.03</v>
+        <v>0.9847553427412109</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9738663133184028</v>
+        <v>1.051357587387563</v>
       </c>
       <c r="D12">
-        <v>0.5866623035392011</v>
+        <v>0.8728167053787005</v>
       </c>
       <c r="E12">
-        <v>1.166930418892797</v>
+        <v>1.009671242302673</v>
       </c>
       <c r="F12">
-        <v>0.9738663133184028</v>
+        <v>1.051357587387563</v>
       </c>
       <c r="G12">
-        <v>0.6965829226496014</v>
+        <v>0.9423789555881441</v>
       </c>
       <c r="H12">
-        <v>1.531983449087998</v>
+        <v>1.011844202893995</v>
       </c>
       <c r="I12">
-        <v>1.129855203737595</v>
+        <v>1.020766866141263</v>
       </c>
       <c r="J12">
-        <v>0.5866623035392011</v>
+        <v>0.8728167053787005</v>
       </c>
       <c r="K12">
-        <v>0.8767963612159989</v>
+        <v>0.9412439738406868</v>
       </c>
       <c r="L12">
-        <v>0.9253313372672008</v>
+        <v>0.9963007806141251</v>
       </c>
       <c r="M12">
-        <v>1.014313435204266</v>
+        <v>0.9848059266153899</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9947327722431548</v>
+        <v>1.05206115460241</v>
       </c>
       <c r="D13">
-        <v>0.9957245158904163</v>
+        <v>0.8720553124624546</v>
       </c>
       <c r="E13">
-        <v>0.9955181344712419</v>
+        <v>1.009631461895011</v>
       </c>
       <c r="F13">
-        <v>0.9947327722431548</v>
+        <v>1.05206115460241</v>
       </c>
       <c r="G13">
-        <v>0.9923270000601163</v>
+        <v>0.942035318956889</v>
       </c>
       <c r="H13">
-        <v>0.9958885205865783</v>
+        <v>1.011731180746816</v>
       </c>
       <c r="I13">
-        <v>0.9948092828282182</v>
+        <v>1.020906747108399</v>
       </c>
       <c r="J13">
-        <v>0.9957245158904163</v>
+        <v>0.8720553124624546</v>
       </c>
       <c r="K13">
-        <v>0.9956213251808291</v>
+        <v>0.9408433871787329</v>
       </c>
       <c r="L13">
-        <v>0.995177048711992</v>
+        <v>0.9964522708905714</v>
       </c>
       <c r="M13">
-        <v>0.9948333710132878</v>
+        <v>0.9847368626286631</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.966146988704793</v>
+        <v>0.9776360000000009</v>
       </c>
       <c r="D14">
-        <v>1.036539090292442</v>
+        <v>0.576812</v>
       </c>
       <c r="E14">
-        <v>0.9943099831010246</v>
+        <v>1.167143999999998</v>
       </c>
       <c r="F14">
-        <v>0.966146988704793</v>
+        <v>0.9776360000000009</v>
       </c>
       <c r="G14">
-        <v>1.012887382432283</v>
+        <v>0.6972120000000004</v>
       </c>
       <c r="H14">
-        <v>0.9971065002932368</v>
+        <v>1.522711999999999</v>
       </c>
       <c r="I14">
-        <v>0.9868115420059429</v>
+        <v>1.131287999999995</v>
       </c>
       <c r="J14">
-        <v>1.036539090292442</v>
+        <v>0.576812</v>
       </c>
       <c r="K14">
-        <v>1.015424536696733</v>
+        <v>0.871977999999999</v>
       </c>
       <c r="L14">
-        <v>0.990785762700763</v>
+        <v>0.9248069999999999</v>
       </c>
       <c r="M14">
-        <v>0.9989669144716203</v>
+        <v>1.012133999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9774418347662787</v>
+        <v>0.95</v>
       </c>
       <c r="D15">
-        <v>1.096955254664568</v>
+        <v>0.3</v>
       </c>
       <c r="E15">
-        <v>0.9696357710925548</v>
+        <v>1.29</v>
       </c>
       <c r="F15">
-        <v>0.9774418347662787</v>
+        <v>0.95</v>
       </c>
       <c r="G15">
-        <v>1.051705709733146</v>
+        <v>0.48</v>
       </c>
       <c r="H15">
-        <v>0.9204360492502689</v>
+        <v>1.93</v>
       </c>
       <c r="I15">
-        <v>0.9685021614238715</v>
+        <v>1.23</v>
       </c>
       <c r="J15">
-        <v>1.096955254664568</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
-        <v>1.033295512878561</v>
+        <v>0.795</v>
       </c>
       <c r="L15">
-        <v>1.00536867382242</v>
+        <v>0.8725000000000001</v>
       </c>
       <c r="M15">
-        <v>0.9974461301551147</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.089175334079616</v>
+        <v>0.9738663133184028</v>
       </c>
       <c r="D16">
-        <v>0.7561887107447419</v>
+        <v>0.5866623035392011</v>
       </c>
       <c r="E16">
-        <v>1.036456733616979</v>
+        <v>1.166930418892797</v>
       </c>
       <c r="F16">
-        <v>1.089175334079616</v>
+        <v>0.9738663133184028</v>
       </c>
       <c r="G16">
-        <v>0.8664604101021188</v>
+        <v>0.6965829226496014</v>
       </c>
       <c r="H16">
-        <v>1.102811925910289</v>
+        <v>1.531983449087998</v>
       </c>
       <c r="I16">
-        <v>1.05363254966033</v>
+        <v>1.129855203737595</v>
       </c>
       <c r="J16">
-        <v>0.7561887107447419</v>
+        <v>0.5866623035392011</v>
       </c>
       <c r="K16">
-        <v>0.8963227221808603</v>
+        <v>0.8767963612159989</v>
       </c>
       <c r="L16">
-        <v>0.9927490281302379</v>
+        <v>0.9253313372672008</v>
       </c>
       <c r="M16">
-        <v>0.9841209440190125</v>
+        <v>1.014313435204266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9947327722431548</v>
+      </c>
+      <c r="D17">
+        <v>0.9957245158904163</v>
+      </c>
+      <c r="E17">
+        <v>0.9955181344712419</v>
+      </c>
+      <c r="F17">
+        <v>0.9947327722431548</v>
+      </c>
+      <c r="G17">
+        <v>0.9923270000601163</v>
+      </c>
+      <c r="H17">
+        <v>0.9958885205865783</v>
+      </c>
+      <c r="I17">
+        <v>0.9948092828282182</v>
+      </c>
+      <c r="J17">
+        <v>0.9957245158904163</v>
+      </c>
+      <c r="K17">
+        <v>0.9956213251808291</v>
+      </c>
+      <c r="L17">
+        <v>0.995177048711992</v>
+      </c>
+      <c r="M17">
+        <v>0.9948333710132878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.966146988704793</v>
+      </c>
+      <c r="D18">
+        <v>1.036539090292442</v>
+      </c>
+      <c r="E18">
+        <v>0.9943099831010246</v>
+      </c>
+      <c r="F18">
+        <v>0.966146988704793</v>
+      </c>
+      <c r="G18">
+        <v>1.012887382432283</v>
+      </c>
+      <c r="H18">
+        <v>0.9971065002932368</v>
+      </c>
+      <c r="I18">
+        <v>0.9868115420059429</v>
+      </c>
+      <c r="J18">
+        <v>1.036539090292442</v>
+      </c>
+      <c r="K18">
+        <v>1.015424536696733</v>
+      </c>
+      <c r="L18">
+        <v>0.990785762700763</v>
+      </c>
+      <c r="M18">
+        <v>0.9989669144716203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9774418347662787</v>
+      </c>
+      <c r="D19">
+        <v>1.096955254664568</v>
+      </c>
+      <c r="E19">
+        <v>0.9696357710925548</v>
+      </c>
+      <c r="F19">
+        <v>0.9774418347662787</v>
+      </c>
+      <c r="G19">
+        <v>1.051705709733146</v>
+      </c>
+      <c r="H19">
+        <v>0.9204360492502689</v>
+      </c>
+      <c r="I19">
+        <v>0.9685021614238715</v>
+      </c>
+      <c r="J19">
+        <v>1.096955254664568</v>
+      </c>
+      <c r="K19">
+        <v>1.033295512878561</v>
+      </c>
+      <c r="L19">
+        <v>1.00536867382242</v>
+      </c>
+      <c r="M19">
+        <v>0.9974461301551147</v>
       </c>
     </row>
   </sheetData>
